--- a/data/other/used_conditions.xlsx
+++ b/data/other/used_conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/active_repos/cd_2f/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BA17D-EA41-8644-914F-A72950B3A086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE2D6D-088A-D043-A8CE-94D13809C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15500" xr2:uid="{654ACF8A-0588-2F41-A6FB-95E27CA9F31A}"/>
   </bookViews>
@@ -64,13 +64,13 @@
     <t>Mb_10_14</t>
   </si>
   <si>
-    <t>Mb_20_23</t>
-  </si>
-  <si>
     <t>Mb_30_27</t>
   </si>
   <si>
     <t>Mb_50_18</t>
+  </si>
+  <si>
+    <t>Mb_20_x</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,17 +477,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
